--- a/testing/sfoftware testing.xlsx
+++ b/testing/sfoftware testing.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df0319f195ea896e/Desktop/T/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df0319f195ea896e/Desktop/T/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{3E260E56-61C4-465D-92D3-E4A8926B68DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B75242AD-A902-471A-9980-A46FA28DABC4}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:1_{3E260E56-61C4-465D-92D3-E4A8926B68DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD49B524-F0DD-43C4-8E35-3718A7148CB9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FAD513CB-26A8-452A-B5FF-DDF4300769D5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{FAD513CB-26A8-452A-B5FF-DDF4300769D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="test scenario" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="158">
   <si>
     <t>login page</t>
   </si>
@@ -379,12 +380,222 @@
       <t>allows us to reuse code by creating one function that's usable for multiple uses. We can also make</t>
     </r>
   </si>
+  <si>
+    <t>instagram</t>
+  </si>
+  <si>
+    <t>1.validation login mobile and gamil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.manege profile </t>
+  </si>
+  <si>
+    <t>3.send massges</t>
+  </si>
+  <si>
+    <t>4.add profilr photo</t>
+  </si>
+  <si>
+    <t>5.add story</t>
+  </si>
+  <si>
+    <t>6.add post</t>
+  </si>
+  <si>
+    <t>7.send friend requst</t>
+  </si>
+  <si>
+    <t>8.accept friend requst</t>
+  </si>
+  <si>
+    <t>9.friend post like and comment</t>
+  </si>
+  <si>
+    <t>10.check voice call</t>
+  </si>
+  <si>
+    <t>11.chech video call</t>
+  </si>
+  <si>
+    <t>12.verify app version</t>
+  </si>
+  <si>
+    <t>13.verify add post camera and gallery</t>
+  </si>
+  <si>
+    <t>14.verify shere option</t>
+  </si>
+  <si>
+    <t>16.verify I have added the story  how many people have seen it</t>
+  </si>
+  <si>
+    <t>15.verify add post like and comment let me show you</t>
+  </si>
+  <si>
+    <t>17.verify group video call</t>
+  </si>
+  <si>
+    <t>linkdin</t>
+  </si>
+  <si>
+    <t>18.add post location</t>
+  </si>
+  <si>
+    <t>19.Search Functionality</t>
+  </si>
+  <si>
+    <t>20.verify Notifications</t>
+  </si>
+  <si>
+    <t>21.verify Privacy Settings and Security Features</t>
+  </si>
+  <si>
+    <t>22.Edit an existing user profile to update biography</t>
+  </si>
+  <si>
+    <t>23.Group messaging functionality.</t>
+  </si>
+  <si>
+    <t>24.Notification settings management.</t>
+  </si>
+  <si>
+    <t>Create a new user profile with all required information and optional fields left blank.</t>
+  </si>
+  <si>
+    <t>Edit an existing user profile to update biography and work experience.</t>
+  </si>
+  <si>
+    <t>Attempt to save a profile with invalid data</t>
+  </si>
+  <si>
+    <t>validation login mobile and gamil</t>
+  </si>
+  <si>
+    <t>Send, accept, and reject connection requests.</t>
+  </si>
+  <si>
+    <t>Remove a connection and check if they can be re-added.</t>
+  </si>
+  <si>
+    <t>Check visibility restrictions based on connection level.</t>
+  </si>
+  <si>
+    <t>Send messages between</t>
+  </si>
+  <si>
+    <t>Post a job listing as a recruiter and edit it.</t>
+  </si>
+  <si>
+    <t>Apply for a job as a user and withdraw an application.</t>
+  </si>
+  <si>
+    <t>Search and filter job listings.</t>
+  </si>
+  <si>
+    <t>Like, comment, and share posts from connections.</t>
+  </si>
+  <si>
+    <t>Search for users by name and filter results.</t>
+  </si>
+  <si>
+    <t>Receive notifications for new connections, messages, job alerts.</t>
+  </si>
+  <si>
+    <t>Change profile</t>
+  </si>
+  <si>
+    <t>Block a user and verify they cannot view your profile or contact you.</t>
+  </si>
+  <si>
+    <t>25. Block a user and verify they cannot view your profile or contact you.</t>
+  </si>
+  <si>
+    <t>Edit and delete posts.</t>
+  </si>
+  <si>
+    <t>Receive notifications for likes, comments, shares, and connections.</t>
+  </si>
+  <si>
+    <t>Apply for a job.</t>
+  </si>
+  <si>
+    <t>Job search functionality</t>
+  </si>
+  <si>
+    <t>Responsive design across different devices and screen sizes.</t>
+  </si>
+  <si>
+    <t>26.Responsive design across different devices and screen sizes.</t>
+  </si>
+  <si>
+    <t>Gmail</t>
+  </si>
+  <si>
+    <t>Register a new Gmail account with valid user details.</t>
+  </si>
+  <si>
+    <t>Log in with correct credentials.</t>
+  </si>
+  <si>
+    <t>Log in with incorrect credentials and verify error messages.</t>
+  </si>
+  <si>
+    <t>Recover a forgotten password using the account recovery feature.</t>
+  </si>
+  <si>
+    <t>Compose and send an email to a single user</t>
+  </si>
+  <si>
+    <t>Compose and send an email to multiple user</t>
+  </si>
+  <si>
+    <t>Reply to and forward received emails.</t>
+  </si>
+  <si>
+    <t>Search for emails by keyword, sender, and date.</t>
+  </si>
+  <si>
+    <t>delete, and recover emails from the trash.</t>
+  </si>
+  <si>
+    <t>Add a new contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit and update contact </t>
+  </si>
+  <si>
+    <t>Import and export contacts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change display settings </t>
+  </si>
+  <si>
+    <t>Manage notification settings on different devices.</t>
+  </si>
+  <si>
+    <t>Send and receive encrypted emails.</t>
+  </si>
+  <si>
+    <t>Log in from an athor device and verify security alerts.</t>
+  </si>
+  <si>
+    <t>send email attachment file(png,pdf,jpg…and mor) size limit and verify the error message</t>
+  </si>
+  <si>
+    <t>Folder Reename</t>
+  </si>
+  <si>
+    <t>Rename a folder using valid new names</t>
+  </si>
+  <si>
+    <t>rename a folder using a name that already exists at the same location.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +700,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -510,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -528,9 +753,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1083,7 +1312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87F3D9E-8CA6-46EE-AF04-E76AA2C696F1}">
   <dimension ref="D3:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
@@ -1282,19 +1511,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-    </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D42" s="15"/>
       <c r="E42" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D43" s="15"/>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="15" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1304,14 +1527,12 @@
       </c>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D46" s="15"/>
-      <c r="E46" s="17" t="s">
+      <c r="E46" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D47" s="15"/>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="16" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1492,4 +1713,283 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BE94B0-7E05-460D-B4FD-FA6F53E952A1}">
+  <dimension ref="B2:AE28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AC12" sqref="AC12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:31" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE2" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="2:31" ht="15" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE3" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="2:31" ht="15" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE4" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" ht="15" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" ht="15" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" t="s">
+        <v>117</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" ht="15" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" ht="15" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" ht="15" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" ht="15" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="T10" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31" ht="15" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="T11" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31" ht="15" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="T12" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="2:31" ht="15" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="T13" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" ht="15" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="T14" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="2:31" ht="15" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" ht="15" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="T16" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="T17" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="T18" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="T19" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="T20" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testing/sfoftware testing.xlsx
+++ b/testing/sfoftware testing.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df0319f195ea896e/Desktop/T/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:1_{3E260E56-61C4-465D-92D3-E4A8926B68DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD49B524-F0DD-43C4-8E35-3718A7148CB9}"/>
+  <xr:revisionPtr revIDLastSave="386" documentId="13_ncr:1_{3E260E56-61C4-465D-92D3-E4A8926B68DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1C9616F-0588-4007-959A-4E1B2A66AF32}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{FAD513CB-26A8-452A-B5FF-DDF4300769D5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{FAD513CB-26A8-452A-B5FF-DDF4300769D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="test scenario" sheetId="3" r:id="rId3"/>
+    <sheet name="HLR EX" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="214">
   <si>
     <t>login page</t>
   </si>
@@ -590,12 +591,180 @@
   <si>
     <t>rename a folder using a name that already exists at the same location.</t>
   </si>
+  <si>
+    <t>Functionality id</t>
+  </si>
+  <si>
+    <t>Functionality name</t>
+  </si>
+  <si>
+    <t>Functionality description</t>
+  </si>
+  <si>
+    <t>New customer</t>
+  </si>
+  <si>
+    <t>New Account</t>
+  </si>
+  <si>
+    <t>A manager can add a new customer.</t>
+  </si>
+  <si>
+    <t>system provides 2 types of accounts(1.Saving 2.Current)</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>A customer can change password of only his account.</t>
+  </si>
+  <si>
+    <t>Balance Enquiry</t>
+  </si>
+  <si>
+    <t>Customer can have multiple bank accounts.</t>
+  </si>
+  <si>
+    <t>Manager can view balance of all the customers</t>
+  </si>
+  <si>
+    <t>Fund Transfer</t>
+  </si>
+  <si>
+    <t>customer can have transfer funds from his “own” account to any destination account</t>
+  </si>
+  <si>
+    <t>manager can transfer funds from any source bank account to destination account</t>
+  </si>
+  <si>
+    <t>Mini Statement</t>
+  </si>
+  <si>
+    <t>customer can see mini-statement of only his “own” accounts</t>
+  </si>
+  <si>
+    <t>manager can see mini-statement of any account</t>
+  </si>
+  <si>
+    <t>Edit Account</t>
+  </si>
+  <si>
+    <t>manager can add a edit account details for an existing account</t>
+  </si>
+  <si>
+    <t>Delete Account</t>
+  </si>
+  <si>
+    <t>manager can add a delete an account for a customer</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>manager can deposit money into any account. Usually done when cash is deposited at a bank branch.</t>
+  </si>
+  <si>
+    <t>Withdrawal</t>
+  </si>
+  <si>
+    <t>manager can withdraw money from any accoun</t>
+  </si>
+  <si>
+    <t>NC_01</t>
+  </si>
+  <si>
+    <t>Test Case id</t>
+  </si>
+  <si>
+    <t>Testcase Name</t>
+  </si>
+  <si>
+    <t>Numbers are not allowed</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Pre condition</t>
+  </si>
+  <si>
+    <t>1.Registration page open proprly</t>
+  </si>
+  <si>
+    <t>Test step</t>
+  </si>
+  <si>
+    <t>Enter name</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Error message</t>
+  </si>
+  <si>
+    <t>2.add new customer name</t>
+  </si>
+  <si>
+    <t>Special characters are not allowed</t>
+  </si>
+  <si>
+    <t>Name:vishal77</t>
+  </si>
+  <si>
+    <t>Name:Vishal@m</t>
+  </si>
+  <si>
+    <t>NC_NM_3</t>
+  </si>
+  <si>
+    <t>Customer name must not be blank</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>First character cannot have space</t>
+  </si>
+  <si>
+    <t>NC_NM_4</t>
+  </si>
+  <si>
+    <t>Name: vishal</t>
+  </si>
+  <si>
+    <t>NC_NM_5</t>
+  </si>
+  <si>
+    <t>customer name only a to z alphabet</t>
+  </si>
+  <si>
+    <t>Name:Vishal</t>
+  </si>
+  <si>
+    <t>The name written by the customer name is right</t>
+  </si>
+  <si>
+    <t>NC_NM_1</t>
+  </si>
+  <si>
+    <t>NC_NM_2</t>
+  </si>
+  <si>
+    <t>Test Secinario id</t>
+  </si>
+  <si>
+    <t>Test Secinario name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,13 +883,33 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -735,7 +924,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -760,6 +949,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1719,7 +1911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BE94B0-7E05-460D-B4FD-FA6F53E952A1}">
   <dimension ref="B2:AE28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
@@ -1992,4 +2184,305 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9FCB55-658A-45A7-8797-476BD486E45C}">
+  <dimension ref="A2:T15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.5546875" customWidth="1"/>
+    <col min="2" max="2" width="51.88671875" customWidth="1"/>
+    <col min="3" max="3" width="49.88671875" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="23.88671875" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" customWidth="1"/>
+    <col min="16" max="16" width="33.109375" customWidth="1"/>
+    <col min="17" max="17" width="28.6640625" customWidth="1"/>
+    <col min="18" max="18" width="14.88671875" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" customWidth="1"/>
+    <col min="20" max="20" width="38.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N3" t="s">
+        <v>188</v>
+      </c>
+      <c r="O3" t="s">
+        <v>210</v>
+      </c>
+      <c r="P3" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>190</v>
+      </c>
+      <c r="R3" t="s">
+        <v>192</v>
+      </c>
+      <c r="S3" t="s">
+        <v>198</v>
+      </c>
+      <c r="T3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+      <c r="O5" t="s">
+        <v>211</v>
+      </c>
+      <c r="P5" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>190</v>
+      </c>
+      <c r="R5" t="s">
+        <v>192</v>
+      </c>
+      <c r="S5" t="s">
+        <v>199</v>
+      </c>
+      <c r="T5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="O7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>190</v>
+      </c>
+      <c r="R7" t="s">
+        <v>192</v>
+      </c>
+      <c r="S7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>172</v>
+      </c>
+      <c r="O9" t="s">
+        <v>204</v>
+      </c>
+      <c r="P9" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>190</v>
+      </c>
+      <c r="R9" t="s">
+        <v>192</v>
+      </c>
+      <c r="S9" t="s">
+        <v>205</v>
+      </c>
+      <c r="T9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>175</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="S11" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="T11" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>